--- a/VerveStacks_FIN/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_FIN/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FIN\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D38F28B-6B0F-437F-B5D3-55185E8CF762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57B4827-E0F3-4C05-BAA8-BDF6F09CB5D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1526,7 +1526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9045AD5C-8511-4BC0-B649-FA8DB98090BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{991BFA48-F08F-4892-86B3-B764BA0EC86C}">
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1578,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E439E91C-0A59-4AC4-B37A-6230373B4A3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5342F39F-7609-4F41-8D92-08DD51D862AE}">
   <dimension ref="B2:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1672,7 +1672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{545F2DE6-999E-44E9-A32C-14E4B66B4D9D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4A4DA20-B854-4AAE-8E26-5C47E4FA79BB}">
   <dimension ref="B2:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_FIN/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_FIN/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FIN\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57B4827-E0F3-4C05-BAA8-BDF6F09CB5D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E683ABCD-3BC4-4108-94A0-31C26C6FF690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1526,7 +1526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{991BFA48-F08F-4892-86B3-B764BA0EC86C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7767102-0991-40AA-B2FB-DC9050C286B2}">
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1578,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5342F39F-7609-4F41-8D92-08DD51D862AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8BFE633-04DC-4DAC-884C-0B34A36D95B5}">
   <dimension ref="B2:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1660,7 +1660,7 @@
         <v>75</v>
       </c>
       <c r="N4">
-        <v>1.2</v>
+        <v>1.1999999999999997</v>
       </c>
       <c r="O4" t="s">
         <v>95</v>
@@ -1672,7 +1672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4A4DA20-B854-4AAE-8E26-5C47E4FA79BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFA6C3A-3A94-4966-823F-E7390A0D5481}">
   <dimension ref="B2:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
